--- a/Tugas/Tugas Kelompok Bu Pika 1/Tugas.xlsx
+++ b/Tugas/Tugas Kelompok Bu Pika 1/Tugas.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 5\7. Pengantar Analisis Data Kategorik\Tugas\Tugas Kelompok Bu Pika 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F8E310-F577-4183-BEB4-39BCEDD93866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BAF13E-DAD4-4155-8436-4224BADEC304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="3000" windowWidth="18105" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
   <si>
     <t>City</t>
   </si>
@@ -67,13 +78,26 @@
   </si>
   <si>
     <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,12 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,25 +428,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I5"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="2"/>
       <c r="G1" t="s">
         <v>0</v>
       </c>
@@ -431,14 +456,26 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
@@ -450,18 +487,30 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2">
         <v>126</v>
       </c>
-      <c r="D3" s="2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1">
         <v>100</v>
       </c>
       <c r="G3" t="s">
@@ -473,16 +522,28 @@
       <c r="I3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>35</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>61</v>
       </c>
       <c r="G4" t="s">
@@ -494,18 +555,30 @@
       <c r="I4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
         <v>908</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>688</v>
       </c>
       <c r="G5" t="s">
@@ -517,222 +590,595 @@
       <c r="I5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>497</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>807</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
         <v>913</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>747</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>336</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>598</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="J8" s="2"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
         <v>235</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>172</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>58</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>121</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
         <v>402</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>308</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>121</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
         <v>182</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>72</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
         <v>60</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
         <v>104</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>21</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
+        <v>36</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
@@ -743,6 +1189,11 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
